--- a/config/TestConfiguration.xlsx
+++ b/config/TestConfiguration.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POC_Frameworks\Frameworks\Frameworks\Playwright-js\Playwright-js\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lrpframework\LRP_framework\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17270" windowHeight="5690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Description</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Headless</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Parallel</t>
@@ -726,7 +723,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -755,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -766,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -775,22 +772,22 @@
         <v>17</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
@@ -799,16 +796,16 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="8">
         <v>300</v>
@@ -817,7 +814,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="8">
         <v>25</v>
@@ -826,10 +823,10 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -840,7 +837,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -867,7 +864,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
